--- a/exel/Sci.xlsx
+++ b/exel/Sci.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>first_name_th</t>
   </si>
@@ -107,9 +107,6 @@
     <t>0831542243</t>
   </si>
   <si>
-    <t>testemail.gmail.com</t>
-  </si>
-  <si>
     <t>อลงกรณ์</t>
   </si>
   <si>
@@ -132,16 +129,34 @@
   </si>
   <si>
     <t>เมือง</t>
+  </si>
+  <si>
+    <t>testemail@gmail.com</t>
+  </si>
+  <si>
+    <t>0845564854</t>
+  </si>
+  <si>
+    <t>testedmail@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
@@ -165,15 +180,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,7 +473,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O3"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -530,22 +548,22 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2">
@@ -558,91 +576,95 @@
         <v>2547</v>
       </c>
       <c r="J2" s="1">
-        <v>1111111111111</v>
-      </c>
-      <c r="K2" t="s">
+        <v>8454562846489</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>27</v>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="N2">
         <v>564</v>
       </c>
       <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2">
         <v>71170</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>2548</v>
       </c>
       <c r="J3" s="1">
-        <v>2222222222222</v>
-      </c>
-      <c r="K3" t="s">
+        <v>2549348436449</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3">
-        <v>216116565</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="N3">
         <v>6564</v>
       </c>
       <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3">
         <v>71170</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/exel/Sci.xlsx
+++ b/exel/Sci.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-NPRU\Desktop\datadriven\DataTestDriven\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\TestData_Driven\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="377">
   <si>
     <t>first_name_th</t>
   </si>
@@ -134,10 +134,1027 @@
     <t>testemail@gmail.com</t>
   </si>
   <si>
-    <t>0845564854</t>
-  </si>
-  <si>
     <t>testedmail@gmail.com</t>
+  </si>
+  <si>
+    <t>ก้องภพ</t>
+  </si>
+  <si>
+    <t>สมหวัง</t>
+  </si>
+  <si>
+    <t>Kongphop</t>
+  </si>
+  <si>
+    <t>Somwang</t>
+  </si>
+  <si>
+    <t>กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>บางกะปิ</t>
+  </si>
+  <si>
+    <t>หัวหมาก</t>
+  </si>
+  <si>
+    <t>นางสาว</t>
+  </si>
+  <si>
+    <t>พิมพ์วดี</t>
+  </si>
+  <si>
+    <t>ศิริกุล</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Phimwadee</t>
+  </si>
+  <si>
+    <t>Sirikul</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>phimwadee@email.com</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>ศรีภูมิ</t>
+  </si>
+  <si>
+    <t>วรากร</t>
+  </si>
+  <si>
+    <t>พิพัฒน์ชัย</t>
+  </si>
+  <si>
+    <t>Warakorn</t>
+  </si>
+  <si>
+    <t>Phiphatchai</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>warakorn@email.com</t>
+  </si>
+  <si>
+    <t>นครราชสีมา</t>
+  </si>
+  <si>
+    <t>ในเมือง</t>
+  </si>
+  <si>
+    <t>นาง</t>
+  </si>
+  <si>
+    <t>วิลาวัณย์</t>
+  </si>
+  <si>
+    <t>สงวนศรี</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Wilawan</t>
+  </si>
+  <si>
+    <t>Sanguansri</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>ภาคภูมิ</t>
+  </si>
+  <si>
+    <t>เรืองโรจน์</t>
+  </si>
+  <si>
+    <t>Phakphum</t>
+  </si>
+  <si>
+    <t>Ruangroj</t>
+  </si>
+  <si>
+    <t>phakphum@email.com</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>ตลาดใหญ่</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2925384927265</t>
+  </si>
+  <si>
+    <t>pass3162</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ป่าตอง</t>
+  </si>
+  <si>
+    <t>อนุชา</t>
+  </si>
+  <si>
+    <t>มั่งมี</t>
+  </si>
+  <si>
+    <t>Anucha</t>
+  </si>
+  <si>
+    <t>Mangmee</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9628240855547</t>
+  </si>
+  <si>
+    <t>pass3750</t>
+  </si>
+  <si>
+    <t>anucha@email.com</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>ท่าศาลา</t>
+  </si>
+  <si>
+    <t>7198174143392</t>
+  </si>
+  <si>
+    <t>pass9775</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>คลองแห</t>
+  </si>
+  <si>
+    <t>มณฑาทิพย์</t>
+  </si>
+  <si>
+    <t>บัวทอง</t>
+  </si>
+  <si>
+    <t>Monthathip</t>
+  </si>
+  <si>
+    <t>Buathong</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8714697304417</t>
+  </si>
+  <si>
+    <t>pass6541</t>
+  </si>
+  <si>
+    <t>monthathip@email.com</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>สงขลา</t>
+  </si>
+  <si>
+    <t>ปากพูน</t>
+  </si>
+  <si>
+    <t>หนองแสง</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3162454260379</t>
+  </si>
+  <si>
+    <t>pass5514</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>สราวุฒิ</t>
+  </si>
+  <si>
+    <t>ชื่นสุข</t>
+  </si>
+  <si>
+    <t>Sarawut</t>
+  </si>
+  <si>
+    <t>Chuensuk</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4754262447134</t>
+  </si>
+  <si>
+    <t>pass5290</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>นครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>ช้างม่อย</t>
+  </si>
+  <si>
+    <t>4984131844318</t>
+  </si>
+  <si>
+    <t>pass6248</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9504158418615</t>
+  </si>
+  <si>
+    <t>pass8798</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2043862230221</t>
+  </si>
+  <si>
+    <t>pass9252</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>นันทิชา</t>
+  </si>
+  <si>
+    <t>ปรีดา</t>
+  </si>
+  <si>
+    <t>Nanticha</t>
+  </si>
+  <si>
+    <t>Preeda</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5480878592165</t>
+  </si>
+  <si>
+    <t>pass9333</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3526606538627</t>
+  </si>
+  <si>
+    <t>pass6695</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>ชวลิต</t>
+  </si>
+  <si>
+    <t>ใจดี</t>
+  </si>
+  <si>
+    <t>Chawalit</t>
+  </si>
+  <si>
+    <t>Jaidee</t>
+  </si>
+  <si>
+    <t>5206860051973</t>
+  </si>
+  <si>
+    <t>pass8312</t>
+  </si>
+  <si>
+    <t>chawalit@email.com</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>5677560869778</t>
+  </si>
+  <si>
+    <t>pass7355</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5506971868090</t>
+  </si>
+  <si>
+    <t>pass2216</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3672806825095</t>
+  </si>
+  <si>
+    <t>pass8928</t>
+  </si>
+  <si>
+    <t>อุบลราชธานี</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8470460376028</t>
+  </si>
+  <si>
+    <t>pass2719</t>
+  </si>
+  <si>
+    <t>5979646271134</t>
+  </si>
+  <si>
+    <t>pass7581</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>บางแขม</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6892086620656</t>
+  </si>
+  <si>
+    <t>pass4036</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8157431450166</t>
+  </si>
+  <si>
+    <t>pass9011</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1113887462940</t>
+  </si>
+  <si>
+    <t>pass1476</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>6923971225953</t>
+  </si>
+  <si>
+    <t>pass4649</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>7407020314473</t>
+  </si>
+  <si>
+    <t>pass2834</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>4373189302608</t>
+  </si>
+  <si>
+    <t>pass1456</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>1715751550192</t>
+  </si>
+  <si>
+    <t>pass4611</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>9534925216212</t>
+  </si>
+  <si>
+    <t>pass9374</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>6544273758309</t>
+  </si>
+  <si>
+    <t>pass6046</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>บางใบไม้</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>7057334037865</t>
+  </si>
+  <si>
+    <t>pass5008</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>4425234203696</t>
+  </si>
+  <si>
+    <t>pass7904</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>9337775371341</t>
+  </si>
+  <si>
+    <t>pass6691</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>2428309626841</t>
+  </si>
+  <si>
+    <t>pass7858</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>1603952501059</t>
+  </si>
+  <si>
+    <t>pass5518</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>2391801693510</t>
+  </si>
+  <si>
+    <t>pass5556</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>7623585142430</t>
+  </si>
+  <si>
+    <t>pass2926</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>8818886526964</t>
+  </si>
+  <si>
+    <t>pass8124</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1878727050468</t>
+  </si>
+  <si>
+    <t>pass5620</t>
+  </si>
+  <si>
+    <t>3331308836968</t>
+  </si>
+  <si>
+    <t>pass2766</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>8273073382394</t>
+  </si>
+  <si>
+    <t>pass1763</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3316961353534</t>
+  </si>
+  <si>
+    <t>pass2300</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>8102809857621</t>
+  </si>
+  <si>
+    <t>pass1711</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>9786346419724</t>
+  </si>
+  <si>
+    <t>pass1967</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>1258681098580</t>
+  </si>
+  <si>
+    <t>pass1010</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>7892163674657</t>
+  </si>
+  <si>
+    <t>pass7114</t>
+  </si>
+  <si>
+    <t>9062175968863</t>
+  </si>
+  <si>
+    <t>pass7057</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>9022142549819</t>
+  </si>
+  <si>
+    <t>pass2223</t>
+  </si>
+  <si>
+    <t>3348257016184</t>
+  </si>
+  <si>
+    <t>pass7582</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>1973083600070</t>
+  </si>
+  <si>
+    <t>pass8545</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>8480515639826</t>
+  </si>
+  <si>
+    <t>pass1866</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>8730301571029</t>
+  </si>
+  <si>
+    <t>pass7901</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>8573521000986</t>
+  </si>
+  <si>
+    <t>pass8464</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>9383547985374</t>
+  </si>
+  <si>
+    <t>pass9293</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>กุมภาพันธ์</t>
+  </si>
+  <si>
+    <t>มีนาคม</t>
+  </si>
+  <si>
+    <t>เมษายน</t>
+  </si>
+  <si>
+    <t>พฤษภาคม</t>
+  </si>
+  <si>
+    <t>มิถุนายน</t>
+  </si>
+  <si>
+    <t>กรกฎาคม</t>
+  </si>
+  <si>
+    <t>สิงหาคม</t>
+  </si>
+  <si>
+    <t>กันยายน</t>
+  </si>
+  <si>
+    <t>ตุลาคม</t>
+  </si>
+  <si>
+    <t>พฤศจิกายน</t>
+  </si>
+  <si>
+    <t>0831542244</t>
+  </si>
+  <si>
+    <t>0831542245</t>
+  </si>
+  <si>
+    <t>0831542246</t>
+  </si>
+  <si>
+    <t>0831542247</t>
+  </si>
+  <si>
+    <t>0831542248</t>
+  </si>
+  <si>
+    <t>0831542249</t>
+  </si>
+  <si>
+    <t>0831542250</t>
+  </si>
+  <si>
+    <t>0831542251</t>
+  </si>
+  <si>
+    <t>0831542252</t>
+  </si>
+  <si>
+    <t>0831542253</t>
+  </si>
+  <si>
+    <t>0831542254</t>
+  </si>
+  <si>
+    <t>0831542255</t>
+  </si>
+  <si>
+    <t>0831542256</t>
+  </si>
+  <si>
+    <t>0831542257</t>
+  </si>
+  <si>
+    <t>0831542258</t>
+  </si>
+  <si>
+    <t>0831542259</t>
+  </si>
+  <si>
+    <t>0831542260</t>
+  </si>
+  <si>
+    <t>0831542261</t>
+  </si>
+  <si>
+    <t>0831542262</t>
+  </si>
+  <si>
+    <t>0831542263</t>
+  </si>
+  <si>
+    <t>0831542264</t>
+  </si>
+  <si>
+    <t>0831542265</t>
+  </si>
+  <si>
+    <t>0831542266</t>
+  </si>
+  <si>
+    <t>0831542267</t>
+  </si>
+  <si>
+    <t>0831542268</t>
+  </si>
+  <si>
+    <t>0831542269</t>
+  </si>
+  <si>
+    <t>0831542270</t>
+  </si>
+  <si>
+    <t>0831542271</t>
+  </si>
+  <si>
+    <t>0831542272</t>
+  </si>
+  <si>
+    <t>0831542273</t>
+  </si>
+  <si>
+    <t>0831542274</t>
+  </si>
+  <si>
+    <t>0831542275</t>
+  </si>
+  <si>
+    <t>0831542276</t>
+  </si>
+  <si>
+    <t>0831542277</t>
+  </si>
+  <si>
+    <t>0831542278</t>
+  </si>
+  <si>
+    <t>0831542279</t>
+  </si>
+  <si>
+    <t>0831542280</t>
+  </si>
+  <si>
+    <t>0831542281</t>
+  </si>
+  <si>
+    <t>0831542282</t>
+  </si>
+  <si>
+    <t>0831542283</t>
+  </si>
+  <si>
+    <t>0831542284</t>
+  </si>
+  <si>
+    <t>0831542285</t>
+  </si>
+  <si>
+    <t>0831542286</t>
+  </si>
+  <si>
+    <t>0831542287</t>
+  </si>
+  <si>
+    <t>0831542288</t>
+  </si>
+  <si>
+    <t>0831542289</t>
+  </si>
+  <si>
+    <t>0831542290</t>
+  </si>
+  <si>
+    <t>0831542291</t>
+  </si>
+  <si>
+    <t>0831542292</t>
+  </si>
+  <si>
+    <t>0831542293</t>
+  </si>
+  <si>
+    <t>0831542294</t>
+  </si>
+  <si>
+    <t>anuch1a@email.com</t>
+  </si>
+  <si>
+    <t>monthath5ip@email.com</t>
+  </si>
+  <si>
+    <t>wara5korn@email.com</t>
+  </si>
+  <si>
+    <t>ph4akphum@email.com</t>
+  </si>
+  <si>
+    <t>kongp4hop@email.com</t>
+  </si>
+  <si>
+    <t>phakp6hum@email.com</t>
+  </si>
+  <si>
+    <t>sarawut@e7mail.com</t>
+  </si>
+  <si>
+    <t>phakphum@email5.com</t>
+  </si>
+  <si>
+    <t>chaw4alit@email.com</t>
+  </si>
+  <si>
+    <t>n4anticha@email.com</t>
+  </si>
+  <si>
+    <t>wa5rakorn@email.com</t>
+  </si>
+  <si>
+    <t>mon6thathip@email.com</t>
+  </si>
+  <si>
+    <t>chawa7lit@email.com</t>
+  </si>
+  <si>
+    <t>nantich8a@email.com</t>
+  </si>
+  <si>
+    <t>monthat8hip@email.com</t>
+  </si>
+  <si>
+    <t>phakp8hum@email.com</t>
+  </si>
+  <si>
+    <t>anu8cha@email.com</t>
+  </si>
+  <si>
+    <t>nanticha7@email.com</t>
+  </si>
+  <si>
+    <t>wara7korn@email.com</t>
+  </si>
+  <si>
+    <t>nant7icha@email.com</t>
+  </si>
+  <si>
+    <t>nan6ticha@email.com</t>
+  </si>
+  <si>
+    <t>anu5cha@email.com</t>
+  </si>
+  <si>
+    <t>sarawut5@email.com</t>
+  </si>
+  <si>
+    <t>wila5wan@email.com</t>
+  </si>
+  <si>
+    <t>wila9wan@email.com</t>
+  </si>
+  <si>
+    <t>sara9wut@email.com</t>
+  </si>
+  <si>
+    <t>ph9akphum@email.com</t>
+  </si>
+  <si>
+    <t>mont2hathip@email.com</t>
+  </si>
+  <si>
+    <t>warako2rn@email.com</t>
+  </si>
+  <si>
+    <t>sar4awut@email.com</t>
+  </si>
+  <si>
+    <t>nantich53a@email.com</t>
+  </si>
+  <si>
+    <t>nanti54cha@email.com</t>
+  </si>
+  <si>
+    <t>kongph654op@email.com</t>
+  </si>
+  <si>
+    <t>pha78kphum@email.com</t>
+  </si>
+  <si>
+    <t>phim5478wadee@email.com</t>
+  </si>
+  <si>
+    <t>saraw554ut@email.com</t>
+  </si>
+  <si>
+    <t>ph654akphum@email.com</t>
+  </si>
+  <si>
+    <t>anuc64ha@email.com</t>
+  </si>
+  <si>
+    <t>nantich867a@email.com</t>
+  </si>
+  <si>
+    <t>wilawan7687@email.com</t>
+  </si>
+  <si>
+    <t>mont76hathip@email.com</t>
   </si>
 </sst>
 </file>
@@ -184,11 +1201,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,28 +1488,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.59765625" customWidth="1"/>
-    <col min="13" max="13" width="17.3984375" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -547,7 +1565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -603,7 +1621,7 @@
         <v>71170</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -638,10 +1656,10 @@
         <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="N3">
         <v>6564</v>
@@ -656,6 +1674,2806 @@
         <v>32</v>
       </c>
       <c r="R3">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4">
+        <v>2548</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5">
+        <v>2548</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6">
+        <v>2548</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7">
+        <v>2548</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8">
+        <v>2548</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9">
+        <v>2548</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I10">
+        <v>2548</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11">
+        <v>2548</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12">
+        <v>2548</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13">
+        <v>2548</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>2548</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>81</v>
+      </c>
+      <c r="R14">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15">
+        <v>2548</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16">
+        <v>2548</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17">
+        <v>2548</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18">
+        <v>2548</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="N18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>108</v>
+      </c>
+      <c r="R18">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" t="s">
+        <v>278</v>
+      </c>
+      <c r="I19">
+        <v>2548</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20">
+        <v>2548</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" t="s">
+        <v>280</v>
+      </c>
+      <c r="I21">
+        <v>2548</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
+        <v>281</v>
+      </c>
+      <c r="I22">
+        <v>2548</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>108</v>
+      </c>
+      <c r="R22">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>282</v>
+      </c>
+      <c r="I23">
+        <v>2548</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24">
+        <v>2548</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25">
+        <v>2548</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>2548</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>124</v>
+      </c>
+      <c r="R26">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>2548</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28">
+        <v>2548</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N28" t="s">
+        <v>198</v>
+      </c>
+      <c r="O28" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>108</v>
+      </c>
+      <c r="R28">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29">
+        <v>2548</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N29" t="s">
+        <v>201</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>202</v>
+      </c>
+      <c r="R29">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30">
+        <v>2548</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
+        <v>278</v>
+      </c>
+      <c r="I31">
+        <v>2548</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>81</v>
+      </c>
+      <c r="R31">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32">
+        <v>2548</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="N32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>280</v>
+      </c>
+      <c r="I33">
+        <v>2548</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="N33" t="s">
+        <v>215</v>
+      </c>
+      <c r="O33" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>92</v>
+      </c>
+      <c r="R33">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>281</v>
+      </c>
+      <c r="I34">
+        <v>2548</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="N34" t="s">
+        <v>218</v>
+      </c>
+      <c r="O34" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R34">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35">
+        <v>2548</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>165</v>
+      </c>
+      <c r="P35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>92</v>
+      </c>
+      <c r="R35">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36">
+        <v>2548</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N36" t="s">
+        <v>224</v>
+      </c>
+      <c r="O36" t="s">
+        <v>165</v>
+      </c>
+      <c r="P36" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37">
+        <v>2548</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" t="s">
+        <v>227</v>
+      </c>
+      <c r="O37" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <v>2548</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" t="s">
+        <v>147</v>
+      </c>
+      <c r="O38" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39">
+        <v>2548</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H40" t="s">
+        <v>275</v>
+      </c>
+      <c r="I40">
+        <v>2548</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N40" t="s">
+        <v>237</v>
+      </c>
+      <c r="O40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P40" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>202</v>
+      </c>
+      <c r="R40">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41">
+        <v>2548</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="N41" t="s">
+        <v>240</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" t="s">
+        <v>277</v>
+      </c>
+      <c r="I42">
+        <v>2548</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N42" t="s">
+        <v>243</v>
+      </c>
+      <c r="O42" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>81</v>
+      </c>
+      <c r="R42">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" t="s">
+        <v>278</v>
+      </c>
+      <c r="I43">
+        <v>2548</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="N43" t="s">
+        <v>246</v>
+      </c>
+      <c r="O43" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>202</v>
+      </c>
+      <c r="R43">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" t="s">
+        <v>177</v>
+      </c>
+      <c r="H44" t="s">
+        <v>279</v>
+      </c>
+      <c r="I44">
+        <v>2548</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="N44" t="s">
+        <v>249</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>81</v>
+      </c>
+      <c r="R44">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>280</v>
+      </c>
+      <c r="I45">
+        <v>2548</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N45" t="s">
+        <v>101</v>
+      </c>
+      <c r="O45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>108</v>
+      </c>
+      <c r="R45">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" t="s">
+        <v>281</v>
+      </c>
+      <c r="I46">
+        <v>2548</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="N46" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>282</v>
+      </c>
+      <c r="I47">
+        <v>2548</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N47" t="s">
+        <v>159</v>
+      </c>
+      <c r="O47" t="s">
+        <v>106</v>
+      </c>
+      <c r="P47" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>92</v>
+      </c>
+      <c r="R47">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" t="s">
+        <v>283</v>
+      </c>
+      <c r="I48">
+        <v>2548</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="N48" t="s">
+        <v>259</v>
+      </c>
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>43</v>
+      </c>
+      <c r="R48">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" t="s">
+        <v>284</v>
+      </c>
+      <c r="I49">
+        <v>2548</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N49" t="s">
+        <v>262</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>2548</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N50" t="s">
+        <v>265</v>
+      </c>
+      <c r="O50" t="s">
+        <v>41</v>
+      </c>
+      <c r="P50" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51">
+        <v>2548</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N51" t="s">
+        <v>268</v>
+      </c>
+      <c r="O51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>92</v>
+      </c>
+      <c r="R51">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" t="s">
+        <v>275</v>
+      </c>
+      <c r="I52">
+        <v>2548</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N52" t="s">
+        <v>271</v>
+      </c>
+      <c r="O52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P52" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>108</v>
+      </c>
+      <c r="R52">
+        <v>71170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" t="s">
+        <v>234</v>
+      </c>
+      <c r="H53" t="s">
+        <v>276</v>
+      </c>
+      <c r="I53">
+        <v>2548</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="N53" t="s">
+        <v>274</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>43</v>
+      </c>
+      <c r="R53">
         <v>71170</v>
       </c>
     </row>
@@ -663,8 +4481,56 @@
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1"/>
     <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="M6" r:id="rId3"/>
+    <hyperlink ref="M7" r:id="rId4"/>
+    <hyperlink ref="M53" r:id="rId5"/>
+    <hyperlink ref="M52" r:id="rId6"/>
+    <hyperlink ref="M51" r:id="rId7"/>
+    <hyperlink ref="M50" r:id="rId8"/>
+    <hyperlink ref="M9" r:id="rId9"/>
+    <hyperlink ref="M8" r:id="rId10"/>
+    <hyperlink ref="M15" r:id="rId11"/>
+    <hyperlink ref="M13" r:id="rId12"/>
+    <hyperlink ref="M11" r:id="rId13"/>
+    <hyperlink ref="M12" r:id="rId14"/>
+    <hyperlink ref="M49" r:id="rId15"/>
+    <hyperlink ref="M48" r:id="rId16"/>
+    <hyperlink ref="M46" r:id="rId17"/>
+    <hyperlink ref="M47" r:id="rId18"/>
+    <hyperlink ref="M43" r:id="rId19"/>
+    <hyperlink ref="M45" r:id="rId20"/>
+    <hyperlink ref="M44" r:id="rId21"/>
+    <hyperlink ref="M41" r:id="rId22"/>
+    <hyperlink ref="M42" r:id="rId23"/>
+    <hyperlink ref="M38" r:id="rId24"/>
+    <hyperlink ref="M36" r:id="rId25"/>
+    <hyperlink ref="M37" r:id="rId26"/>
+    <hyperlink ref="M40" r:id="rId27"/>
+    <hyperlink ref="M39" r:id="rId28"/>
+    <hyperlink ref="M34" r:id="rId29"/>
+    <hyperlink ref="M31" r:id="rId30"/>
+    <hyperlink ref="M20" r:id="rId31"/>
+    <hyperlink ref="M22" r:id="rId32"/>
+    <hyperlink ref="M21" r:id="rId33"/>
+    <hyperlink ref="M23" r:id="rId34"/>
+    <hyperlink ref="M26" r:id="rId35"/>
+    <hyperlink ref="M25" r:id="rId36"/>
+    <hyperlink ref="M24" r:id="rId37"/>
+    <hyperlink ref="M35" r:id="rId38"/>
+    <hyperlink ref="M33" r:id="rId39"/>
+    <hyperlink ref="M30" r:id="rId40"/>
+    <hyperlink ref="M29" r:id="rId41"/>
+    <hyperlink ref="M28" r:id="rId42"/>
+    <hyperlink ref="M27" r:id="rId43"/>
+    <hyperlink ref="M32" r:id="rId44"/>
+    <hyperlink ref="M17" r:id="rId45"/>
+    <hyperlink ref="M19" r:id="rId46"/>
+    <hyperlink ref="M18" r:id="rId47"/>
+    <hyperlink ref="M16" r:id="rId48"/>
+    <hyperlink ref="M14" r:id="rId49"/>
+    <hyperlink ref="M10" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>